--- a/flows/YCL_fund_flow_data.xlsx
+++ b/flows/YCL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3830"/>
+  <dimension ref="A1:B3853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38735,6 +38735,236 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3831">
+      <c r="A3831" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B3831" t="n">
+        <v>1.1905322</v>
+      </c>
+    </row>
+    <row r="3832">
+      <c r="A3832" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B3832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3833">
+      <c r="A3833" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B3833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3834">
+      <c r="A3834" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B3834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3835">
+      <c r="A3835" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3835" t="n">
+        <v>1.1988454</v>
+      </c>
+    </row>
+    <row r="3836">
+      <c r="A3836" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3837">
+      <c r="A3837" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3838">
+      <c r="A3838" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3839">
+      <c r="A3839" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3839" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3840">
+      <c r="A3840" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3841">
+      <c r="A3841" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3841" t="n">
+        <v>-1.1862148</v>
+      </c>
+    </row>
+    <row r="3842">
+      <c r="A3842" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3843">
+      <c r="A3843" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3844">
+      <c r="A3844" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3845">
+      <c r="A3845" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3846">
+      <c r="A3846" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3847">
+      <c r="A3847" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3848">
+      <c r="A3848" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3848" t="n">
+        <v>4.9695716</v>
+      </c>
+    </row>
+    <row r="3849">
+      <c r="A3849" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3850">
+      <c r="A3850" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3851">
+      <c r="A3851" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3852">
+      <c r="A3852" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3852" t="n">
+        <v>1.2274345</v>
+      </c>
+    </row>
+    <row r="3853">
+      <c r="A3853" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B3853" t="n">
+        <v>2.4148982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
